--- a/sf_table_inventory.xlsx
+++ b/sf_table_inventory.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>database</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>CHNL_PAYMENT_SERVICES</t>
-  </si>
-  <si>
-    <t>CHNL_TIDEWALLET_TRANSACTIONS</t>
   </si>
   <si>
     <t>TIDEWALLET_CLEARED_TRANSACTIONS_LOGIC</t>
@@ -350,21 +347,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
